--- a/PS-VRP/Dati_input/Estrazione commesse 3 - prova.xlsx
+++ b/PS-VRP/Dati_input/Estrazione commesse 3 - prova.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wikipedis\Documents\GitHub\progettoIS\PS-VRP\Dati_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0298C4-B85D-4112-9A49-99E98B3D13C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCD83CD-3B74-4216-9B08-CEA091FD16BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2237,9 +2237,6 @@
       <c r="AH14">
         <v>1</v>
       </c>
-      <c r="AI14">
-        <v>39754</v>
-      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
